--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_bg_config_2015_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_bg_config_2015_bg.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QHISPC' 'QEDLESHI' 'QESL' 'PPUNIT' 'QEXTRCT' 'QNOHLTH' 'QSERV']</t>
+          <t>['PPUNIT' 'QNOHLTH' 'QESL' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QSERV']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'PERCAP' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QRENTER' 'QNOAUTO' 'QPOVTY']</t>
+          <t>['PPUNIT' 'QPOVTY' 'QNOAUTO' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -605,51 +605,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8323334996639692</v>
+        <v>0.6950042421615309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3030498682012018</v>
+        <v>-0.03972856867572226</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1374418383499509</v>
+        <v>-0.1344850074106939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2467719518687853</v>
+        <v>0.295343219789343</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08043022442764493</v>
+        <v>-0.5026932960394818</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04898791513959309</v>
+        <v>0.05289376690116133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8796164247971443</v>
+        <v>0.6263524545689422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2014919083849938</v>
+        <v>0.4231482300517775</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01904085872672623</v>
+        <v>-0.1289248806626209</v>
       </c>
       <c r="E3" t="n">
-        <v>0.253204978425727</v>
+        <v>0.241396821743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1445291347763367</v>
+        <v>0.2577595492432418</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0638010531647813</v>
+        <v>-0.1447924361082564</v>
       </c>
     </row>
     <row r="4">
@@ -659,172 +659,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8604417985324155</v>
+        <v>0.8604418003947129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160568582618424</v>
+        <v>0.1605685812068023</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06915685200432653</v>
+        <v>-0.06915684993436025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09000733483172256</v>
+        <v>0.09000733511491976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1477021155119628</v>
+        <v>0.147702115113127</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1588306496788258</v>
+        <v>-0.1588306538039665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6950042391822648</v>
+        <v>0.7821909678616081</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03972856639486479</v>
+        <v>0.165608691840519</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1344850027648208</v>
+        <v>0.01459395546273388</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2953432237923591</v>
+        <v>-0.003581473732409268</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5026932874345703</v>
+        <v>0.05255974953905645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05289376371973782</v>
+        <v>-0.1839728329982369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7821909727799242</v>
+        <v>0.8796164264512172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1656086923957382</v>
+        <v>0.2014919073162585</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01459395456010332</v>
+        <v>-0.01904085822216362</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.003581479236016179</v>
+        <v>0.2532049784097765</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05255975129593216</v>
+        <v>0.1445291330659326</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1839728282016325</v>
+        <v>-0.06380105493025907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6263524545528738</v>
+        <v>0.8323335012753581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4231482311528678</v>
+        <v>0.3030498677819701</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1289248807967339</v>
+        <v>-0.13744183849325</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2413968194170512</v>
+        <v>0.2467719517269937</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2577595518217734</v>
+        <v>0.08043022174434904</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1447924335624462</v>
+        <v>-0.04898791694642405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4381629357876518</v>
+        <v>0.3292221030538979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.668808205534772</v>
+        <v>0.777371731850051</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2718828363918962</v>
+        <v>-0.0470418854986386</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3240757251063958</v>
+        <v>0.2450555893879695</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1684201631956342</v>
+        <v>-0.02255222343493773</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02168969060717995</v>
+        <v>-0.004208326550356855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.182543846466299</v>
+        <v>0.4381629383380049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8515610083083907</v>
+        <v>0.6688081989156589</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1644290233746569</v>
+        <v>-0.2718828380571215</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2015465422449335</v>
+        <v>0.3240757240322474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2742661773132555</v>
+        <v>0.1684201619120705</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01891201845907181</v>
+        <v>0.02168969143571704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3292221017389005</v>
+        <v>0.1825438460891539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7773717357908129</v>
+        <v>0.8515610174030173</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04704188454667585</v>
+        <v>-0.1644290235909441</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2450555876574579</v>
+        <v>0.2015465420583322</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02255222230997819</v>
+        <v>0.274266174680435</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004208326164356278</v>
+        <v>-0.01891201852864471</v>
       </c>
     </row>
     <row r="11">
@@ -834,22 +834,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3828901338397753</v>
+        <v>0.3828901329950921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1456907880353048</v>
+        <v>0.1456907865283606</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0264795926511324</v>
+        <v>-0.02647959377000825</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7632293241480257</v>
+        <v>0.7632293303953928</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03593497830727899</v>
+        <v>0.03593497337199681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1547549991425646</v>
+        <v>0.1547550008723973</v>
       </c>
     </row>
     <row r="12">
@@ -859,22 +859,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1025583071672092</v>
+        <v>0.1025583095994616</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2551143936853965</v>
+        <v>0.2551143929054714</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01547994117947976</v>
+        <v>-0.01547994341345899</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4851388687088417</v>
+        <v>0.4851388628029455</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07551422904567834</v>
+        <v>0.07551422740196355</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04224832760723034</v>
+        <v>0.04224833062010346</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1062308595139098</v>
+        <v>0.1062308585822505</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2023021825607607</v>
+        <v>0.2023021819254433</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08247401210032333</v>
+        <v>-0.08247401163752253</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5455063248190005</v>
+        <v>0.5455063312237338</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3751707000227945</v>
+        <v>0.3751706977442158</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02169796805057928</v>
+        <v>-0.02169796925703291</v>
       </c>
     </row>
     <row r="14">
@@ -909,47 +909,47 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4669965685866533</v>
+        <v>0.4669965697047687</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3070170529113611</v>
+        <v>0.3070170523634838</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1813838158099811</v>
+        <v>-0.1813838172245053</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3973956034321663</v>
+        <v>0.3973956040459024</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3079941458916712</v>
+        <v>0.3079941431927282</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01273744320869532</v>
+        <v>-0.01273744327286811</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04486430351026671</v>
+        <v>0.4014585205476299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2365364282819288</v>
+        <v>0.1301732415812178</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4535574127260166</v>
+        <v>-0.3438998567072605</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009303659101137684</v>
+        <v>0.2479467910200848</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7647816305449322</v>
+        <v>0.4633927735202667</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06132026716109244</v>
+        <v>0.04907527618666947</v>
       </c>
     </row>
     <row r="16">
@@ -959,47 +959,47 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1354495552197431</v>
+        <v>0.1354495573291262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04929346108384693</v>
+        <v>0.04929346061597813</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07400285628702322</v>
+        <v>-0.07400285947557306</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2470264119233787</v>
+        <v>0.2470264128742844</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6400746841814292</v>
+        <v>0.6400746817902931</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03481973540212802</v>
+        <v>0.03481973749686163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.401458517247917</v>
+        <v>0.04486430509073548</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1301732435858614</v>
+        <v>0.2365364276051283</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3438998522828067</v>
+        <v>-0.4535574134473325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.247946793028781</v>
+        <v>0.009303663757529362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4633927739598556</v>
+        <v>0.7647816275103095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0490752732991722</v>
+        <v>-0.06132026925498685</v>
       </c>
     </row>
     <row r="18">
@@ -1009,22 +1009,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02669253997648887</v>
+        <v>-0.02669253354989268</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07422244934515961</v>
+        <v>-0.07422244789924913</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6301726262214317</v>
+        <v>0.6301726308935272</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0452986149276816</v>
+        <v>-0.04529862443030124</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09030205248275366</v>
+        <v>-0.09030204764662979</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6657397143372653</v>
+        <v>0.6657397337228979</v>
       </c>
     </row>
     <row r="19">
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01617606320511001</v>
+        <v>0.01617606350354307</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.05131259198965733</v>
+        <v>-0.05131259253412496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7963514189407314</v>
+        <v>0.7963514121602641</v>
       </c>
       <c r="E19" t="n">
-        <v>0.045482698524028</v>
+        <v>0.04548269705651412</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1206698118555224</v>
+        <v>-0.1206698129958796</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09809679042368832</v>
+        <v>0.09809679540663151</v>
       </c>
     </row>
     <row r="20">
@@ -1059,72 +1059,72 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2723315411568288</v>
+        <v>-0.2723315427644384</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2399335015714933</v>
+        <v>-0.2399335020738759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7898038049460601</v>
+        <v>0.7898038030343612</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2212014109852971</v>
+        <v>-0.2212014071846456</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2219254198504718</v>
+        <v>-0.2219254188329336</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.04090682705390789</v>
+        <v>-0.04090682646546192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3572529952639131</v>
+        <v>-0.09613898309194534</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07112547605234658</v>
+        <v>-0.03199341595266225</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.08746849080939806</v>
+        <v>0.09767192601438376</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2837560596043414</v>
+        <v>-0.004977690753771431</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06590328813418247</v>
+        <v>-0.005878212679290833</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6304728009059533</v>
+        <v>0.9521791192350343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.09613897917596147</v>
+        <v>-0.3572529907958115</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03199341577260559</v>
+        <v>0.07112547614639272</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09767192759494983</v>
+        <v>-0.08746849617450531</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004977697188997821</v>
+        <v>0.2837560520593829</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.005878211510260501</v>
+        <v>0.06590328742991891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9521791485943502</v>
+        <v>0.6304728056137837</v>
       </c>
     </row>
   </sheetData>
@@ -1241,22 +1241,22 @@
         <v>1.032237140243889</v>
       </c>
       <c r="I2" t="n">
-        <v>4.807764623573057</v>
+        <v>4.807764633964199</v>
       </c>
       <c r="J2" t="n">
-        <v>2.51165854250939</v>
+        <v>2.511658538733827</v>
       </c>
       <c r="K2" t="n">
-        <v>2.204500847542859</v>
+        <v>2.204500847018134</v>
       </c>
       <c r="L2" t="n">
-        <v>2.013880015329459</v>
+        <v>2.013880019639944</v>
       </c>
       <c r="M2" t="n">
-        <v>2.003443481220486</v>
+        <v>2.003443472273954</v>
       </c>
       <c r="N2" t="n">
-        <v>1.882546829742659</v>
+        <v>1.882546812632618</v>
       </c>
     </row>
     <row r="3">
@@ -1287,22 +1287,22 @@
         <v>0.03823100519421813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2289411725510979</v>
+        <v>0.2289411730459142</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1196027877385424</v>
+        <v>0.1196027875587537</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1049762308353743</v>
+        <v>0.1049762308103873</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09589904834902188</v>
+        <v>0.09589904855428306</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09540207053430885</v>
+        <v>0.09540207010828353</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0896450871306028</v>
+        <v>0.08964508631583894</v>
       </c>
     </row>
     <row r="4">
@@ -1333,22 +1333,22 @@
         <v>0.6310718824911055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2289411725510979</v>
+        <v>0.2289411730459142</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3485439602896403</v>
+        <v>0.3485439606046679</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4535201911250146</v>
+        <v>0.4535201914150553</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5494192394740365</v>
+        <v>0.5494192399693384</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6448213100083453</v>
+        <v>0.6448213100776219</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7344663971389481</v>
+        <v>0.7344663963934608</v>
       </c>
     </row>
     <row r="5">
@@ -1379,22 +1379,22 @@
         <v>0.06058106256185002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3117108875816769</v>
+        <v>0.3117108885717737</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1628431037886075</v>
+        <v>0.162843103709106</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1429285686102187</v>
+        <v>0.1429285687212714</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1305696880382663</v>
+        <v>0.1305696884502651</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1298930365036979</v>
+        <v>0.1298930360554926</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1220547154775326</v>
+        <v>0.1220547144920912</v>
       </c>
     </row>
   </sheetData>
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.807764623573057</v>
+        <v>4.807764633964199</v>
       </c>
       <c r="C2" t="n">
-        <v>2.51165854250939</v>
+        <v>2.511658538733827</v>
       </c>
       <c r="D2" t="n">
-        <v>2.204500847542859</v>
+        <v>2.204500847018134</v>
       </c>
       <c r="E2" t="n">
-        <v>2.013880015329459</v>
+        <v>2.013880019639944</v>
       </c>
       <c r="F2" t="n">
-        <v>2.003443481220486</v>
+        <v>2.003443472273954</v>
       </c>
       <c r="G2" t="n">
-        <v>1.882546829742659</v>
+        <v>1.882546812632618</v>
       </c>
     </row>
     <row r="3">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2289411725510979</v>
+        <v>0.2289411730459142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1196027877385424</v>
+        <v>0.1196027875587537</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1049762308353743</v>
+        <v>0.1049762308103873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09589904834902188</v>
+        <v>0.09589904855428306</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09540207053430885</v>
+        <v>0.09540207010828353</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0896450871306028</v>
+        <v>0.08964508631583894</v>
       </c>
     </row>
     <row r="4">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2289411725510979</v>
+        <v>0.2289411730459142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3485439602896403</v>
+        <v>0.3485439606046679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4535201911250146</v>
+        <v>0.4535201914150553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5494192394740365</v>
+        <v>0.5494192399693384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6448213100083453</v>
+        <v>0.6448213100776219</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7344663971389481</v>
+        <v>0.7344663963934608</v>
       </c>
     </row>
     <row r="5">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3117108875816769</v>
+        <v>0.3117108885717737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1628431037886075</v>
+        <v>0.162843103709106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1429285686102187</v>
+        <v>0.1429285687212714</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1305696880382663</v>
+        <v>0.1305696884502651</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298930365036979</v>
+        <v>0.1298930360554926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220547154775326</v>
+        <v>0.1220547144920912</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QHISPC', 'QEDLESHI', 'QESL', 'PPUNIT', 'QEXTRCT', 'QNOHLTH', 'QSERV', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QFHH', 'QBLACK', 'QFAM', 'QNOAUTO', 'QPOVTY', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['PPUNIT', 'QNOHLTH', 'QESL', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QSERV', 'MDHSEVAL', 'PERCAP', 'QRICH', 'QRENTER', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QFHH', 'QBLACK', 'QFAM', 'QPOVTY', 'QNOAUTO', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_bg_config_2015_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_bg_config_2015_bg.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QNOHLTH' 'QEDLESHI' 'QHISPC' 'QESL' 'PPUNIT' 'QEXTRCT' 'QSERV']</t>
+          <t>['QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QEXTRCT' 'QESL' 'QSERV']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'PERCAP' 'QRICH']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['QRENTER' 'MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QRENTER' 'QSSBEN' 'QAGEDEP' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QFHH' 'QFAM' 'QBLACK']</t>
+          <t>['QFAM' 'QBLACK' 'QFHH']</t>
         </is>
       </c>
     </row>
@@ -605,26 +605,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6263524554259196</v>
+        <v>0.8323335008748342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4231482319207799</v>
+        <v>0.3030498671497433</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1289248798980636</v>
+        <v>-0.1374418406248409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2413968213175511</v>
+        <v>0.246771955039503</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2577595503275568</v>
+        <v>0.08043021771530522</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1447924342717694</v>
+        <v>-0.04898791536391007</v>
       </c>
     </row>
     <row r="3">
@@ -634,147 +634,147 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8796164266874046</v>
+        <v>0.8796164290428554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201491908092972</v>
+        <v>0.2014919055738267</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0190408584740847</v>
+        <v>-0.01904085951825551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2532049816589625</v>
+        <v>0.2532049813121305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1445291318948997</v>
+        <v>0.144529131046367</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06380105255991601</v>
+        <v>-0.0638010529506029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8323334962177905</v>
+        <v>0.6950042356285905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3030498688942063</v>
+        <v>-0.03972856712333622</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1374418383836971</v>
+        <v>-0.1344850017143573</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2467719564613448</v>
+        <v>0.2953432245599999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08043022128954545</v>
+        <v>-0.5026932982637605</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04898791629921837</v>
+        <v>0.052893763291768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8604418006228827</v>
+        <v>0.6263524599332756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160568582220572</v>
+        <v>0.423148234931695</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06915685210446573</v>
+        <v>-0.1289248811054105</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09000733692009352</v>
+        <v>0.2413968201822979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1477021130855463</v>
+        <v>0.2577595511831858</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1588306492734639</v>
+        <v>-0.1447924357063934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6950042383212826</v>
+        <v>0.782190968859195</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03972856633270608</v>
+        <v>0.1656086915394992</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1344850075238824</v>
+        <v>0.01459395149662146</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2953432283290315</v>
+        <v>-0.003581474003100584</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5026932986709804</v>
+        <v>0.0525597471590189</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05289376483156197</v>
+        <v>-0.1839728286206788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7821909767034749</v>
+        <v>0.8604417957532403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.165608692093378</v>
+        <v>0.1605685820663898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01459395504903595</v>
+        <v>-0.06915685427923905</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00358147964456884</v>
+        <v>0.0900073396966847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05255974932743013</v>
+        <v>0.1477021105946977</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1839728274581381</v>
+        <v>-0.1588306506843869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3292221001013259</v>
+        <v>0.1825438468950678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7773717390300672</v>
+        <v>0.8515610113816134</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04704188397334204</v>
+        <v>-0.1644290280324986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2450555868825934</v>
+        <v>0.201546543478354</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02255222446212949</v>
+        <v>0.2742661729913789</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.004208326495635923</v>
+        <v>-0.01891201771684517</v>
       </c>
     </row>
     <row r="9">
@@ -784,147 +784,147 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4381629344522066</v>
+        <v>0.4381629357300002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6688082082465848</v>
+        <v>0.6688081964289612</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2718828371639705</v>
+        <v>-0.2718828401664755</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3240757262535948</v>
+        <v>0.3240757281520972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1684201605564189</v>
+        <v>0.1684201576831465</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02168969073721586</v>
+        <v>0.02168969021336842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1825438450134058</v>
+        <v>0.3292221019858864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.851561014545223</v>
+        <v>0.7773717309683388</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.164429022093887</v>
+        <v>-0.04704188607396473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2015465408655064</v>
+        <v>0.24505558916171</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2742661769451504</v>
+        <v>-0.02255222401624483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01891201886143185</v>
+        <v>-0.004208326457951917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4669965673134918</v>
+        <v>0.1062308589696324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3070170536596715</v>
+        <v>0.2023021836225416</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1813838156907223</v>
+        <v>-0.08247401540745061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3973956061799309</v>
+        <v>0.5455063272576037</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3079941432555619</v>
+        <v>0.3751706945778431</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01273744403808288</v>
+        <v>-0.02169796777931075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QBLACK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3828901283633874</v>
+        <v>0.1025583111506441</v>
       </c>
       <c r="C12" t="n">
-        <v>0.145690789014509</v>
+        <v>0.2551143929113083</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02647959239003063</v>
+        <v>-0.01547994493385415</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7632293336428108</v>
+        <v>0.4851388524793135</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03593497363655808</v>
+        <v>0.07551422786485693</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1547549976420898</v>
+        <v>0.04224833150140867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1062308574929886</v>
+        <v>0.4669965690286369</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2023021832987372</v>
+        <v>0.3070170516782921</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08247401109827396</v>
+        <v>-0.1813838190886383</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5455063282349242</v>
+        <v>0.3973956096738538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3751706986902654</v>
+        <v>0.3079941420240261</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02169796926725758</v>
+        <v>-0.01273744346965099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QBLACK</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1025583075268439</v>
+        <v>0.3828901297033427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2551143943836227</v>
+        <v>0.1456907907270167</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01547994231815989</v>
+        <v>-0.02647959257841493</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4851388608743698</v>
+        <v>0.7632293245884947</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07551422869708273</v>
+        <v>0.03593497155417973</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04224832902462781</v>
+        <v>0.1547549983085652</v>
       </c>
     </row>
     <row r="15">
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1354495567541504</v>
+        <v>0.1354495575782566</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04929346098937273</v>
+        <v>0.04929346014537595</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07400285684025125</v>
+        <v>-0.07400286394605682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2470264145343106</v>
+        <v>0.2470264160244889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6400746817770195</v>
+        <v>0.6400746808630521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03481973592277431</v>
+        <v>0.03481973734607093</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04486430641261268</v>
+        <v>0.0448643073101133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2365364265450108</v>
+        <v>0.2365364262285755</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4535574123893314</v>
+        <v>-0.4535574207840644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009303661751427515</v>
+        <v>0.009303666721254924</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7647816314937667</v>
+        <v>0.7647816179706552</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06132026759149937</v>
+        <v>-0.06132026606544965</v>
       </c>
     </row>
     <row r="17">
@@ -984,47 +984,47 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4014585184354002</v>
+        <v>0.4014585151573845</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1301732423279726</v>
+        <v>0.1301732460016421</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3438998539966518</v>
+        <v>-0.3438998576763063</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2479467967735142</v>
+        <v>0.2479467968435519</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4633927737156074</v>
+        <v>0.4633927597705997</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0490752741495245</v>
+        <v>0.04907527246519994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2723315395074918</v>
+        <v>0.01617606320483277</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2399335028144444</v>
+        <v>-0.0513125921914897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7898038036472816</v>
+        <v>0.7963514013840184</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.221201413221082</v>
+        <v>0.04548269406830605</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.221925419180473</v>
+        <v>-0.1206698107455635</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04090682488244649</v>
+        <v>0.09809679432850531</v>
       </c>
     </row>
     <row r="19">
@@ -1034,47 +1034,47 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02669253908659435</v>
+        <v>-0.02669253918119746</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.07422244959640298</v>
+        <v>-0.07422244820229555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6301726249881402</v>
+        <v>0.6301726262619128</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.045298615707168</v>
+        <v>-0.04529861524200942</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09030205255642</v>
+        <v>-0.09030204820394654</v>
       </c>
       <c r="G19" t="n">
-        <v>0.665739722049988</v>
+        <v>0.6657397168971999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01617606393927033</v>
+        <v>-0.2723315402340869</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05131259176822724</v>
+        <v>-0.2399335000385847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7963514252201834</v>
+        <v>0.7898038117728539</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04548269930998641</v>
+        <v>-0.2212014119690573</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1206698113043292</v>
+        <v>-0.2219254092966088</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09809679199543909</v>
+        <v>-0.04090682839960137</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09613898135346473</v>
+        <v>-0.09613898153380925</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03199341580390514</v>
+        <v>-0.03199341564667887</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09767192291500328</v>
+        <v>0.09767192815582626</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.004977694584450294</v>
+        <v>-0.004977692630752805</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.005878212567324</v>
+        <v>-0.00587821180931592</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9521791485823018</v>
+        <v>0.9521791382836171</v>
       </c>
     </row>
     <row r="22">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3572529939613793</v>
+        <v>-0.3572529923472658</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07112547639545556</v>
+        <v>0.07112547630577798</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.08746848920515723</v>
+        <v>-0.0874684887124251</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2837560544357148</v>
+        <v>0.2837560543092836</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06590328922991499</v>
+        <v>0.06590328753516082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6304727916740022</v>
+        <v>0.6304727941440537</v>
       </c>
     </row>
   </sheetData>
@@ -1220,43 +1220,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.648254693095826</v>
+        <v>4.648254727062548</v>
       </c>
       <c r="C2" t="n">
-        <v>2.802762021318809</v>
+        <v>2.802762067886635</v>
       </c>
       <c r="D2" t="n">
-        <v>2.337893633089258</v>
+        <v>2.337893684418483</v>
       </c>
       <c r="E2" t="n">
-        <v>2.20969198795899</v>
+        <v>2.209691916388478</v>
       </c>
       <c r="F2" t="n">
-        <v>2.114856493838247</v>
+        <v>2.114856548114908</v>
       </c>
       <c r="G2" t="n">
-        <v>1.893244857714826</v>
+        <v>1.893244878830429</v>
       </c>
       <c r="H2" t="n">
-        <v>1.032237140243889</v>
+        <v>1.032237300477231</v>
       </c>
       <c r="I2" t="n">
-        <v>4.80776462247207</v>
+        <v>4.807764619283186</v>
       </c>
       <c r="J2" t="n">
-        <v>2.511658563417428</v>
+        <v>2.51165852786084</v>
       </c>
       <c r="K2" t="n">
-        <v>2.204500854532309</v>
+        <v>2.204500848563422</v>
       </c>
       <c r="L2" t="n">
-        <v>2.013880037188132</v>
+        <v>2.013880016839993</v>
       </c>
       <c r="M2" t="n">
-        <v>2.003443483366572</v>
+        <v>2.003443434019194</v>
       </c>
       <c r="N2" t="n">
-        <v>1.882546828361331</v>
+        <v>1.882546806851734</v>
       </c>
     </row>
     <row r="3">
@@ -1266,43 +1266,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1721575812257713</v>
+        <v>0.1721575824837981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1038060007895855</v>
+        <v>0.1038060025143198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08658865307737994</v>
+        <v>0.08658865497846234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08184044399848113</v>
+        <v>0.08184044134772141</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07832801829030543</v>
+        <v>0.07832802030055215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07012017991536391</v>
+        <v>0.07012018069742329</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03823100519421813</v>
+        <v>0.03823101112878632</v>
       </c>
       <c r="I3" t="n">
-        <v>0.22894117249867</v>
+        <v>0.2289411723468184</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1196027887341632</v>
+        <v>0.1196027870409924</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1049762311682052</v>
+        <v>0.1049762308839725</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09589904938991108</v>
+        <v>0.09589904842095204</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09540207063650345</v>
+        <v>0.0954020682866283</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08964508706482528</v>
+        <v>0.08964508604055878</v>
       </c>
     </row>
     <row r="4">
@@ -1312,43 +1312,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1721575812257713</v>
+        <v>0.1721575824837981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2759635820153569</v>
+        <v>0.2759635849981179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3625522350927368</v>
+        <v>0.3625522399765803</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4443926790912179</v>
+        <v>0.4443926813243017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5227206973815234</v>
+        <v>0.5227207016248538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5928408772968873</v>
+        <v>0.5928408823222772</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6310718824911055</v>
+        <v>0.6310718934510635</v>
       </c>
       <c r="I4" t="n">
-        <v>0.22894117249867</v>
+        <v>0.2289411723468184</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3485439612328332</v>
+        <v>0.3485439593878108</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4535201924010384</v>
+        <v>0.4535201902717833</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5494192417909495</v>
+        <v>0.5494192386927352</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6448213124274529</v>
+        <v>0.6448213069793636</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7344663994922782</v>
+        <v>0.7344663930199223</v>
       </c>
     </row>
     <row r="5">
@@ -1358,43 +1358,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2728018566540996</v>
+        <v>0.2728018539097686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1644915637499482</v>
+        <v>0.1644915636262122</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1372088592120096</v>
+        <v>0.1372088598415402</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1296848208090377</v>
+        <v>0.1296848143563658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1241190115793337</v>
+        <v>0.1241190126091808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.111112825433721</v>
+        <v>0.1111128247432569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06058106256185002</v>
+        <v>0.06058107091367546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3117108865115306</v>
+        <v>0.311710889051677</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1628431046224064</v>
+        <v>0.1628431037521252</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1429285686054163</v>
+        <v>0.1429285694779571</v>
       </c>
       <c r="L5" t="n">
-        <v>0.130569689037108</v>
+        <v>0.130569688868461</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1298930362266442</v>
+        <v>0.129893034171872</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1220547149968945</v>
+        <v>0.1220547146779079</v>
       </c>
     </row>
   </sheetData>
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.80776462247207</v>
+        <v>4.807764619283186</v>
       </c>
       <c r="C2" t="n">
-        <v>2.511658563417428</v>
+        <v>2.51165852786084</v>
       </c>
       <c r="D2" t="n">
-        <v>2.204500854532309</v>
+        <v>2.204500848563422</v>
       </c>
       <c r="E2" t="n">
-        <v>2.013880037188132</v>
+        <v>2.013880016839993</v>
       </c>
       <c r="F2" t="n">
-        <v>2.003443483366572</v>
+        <v>2.003443434019194</v>
       </c>
       <c r="G2" t="n">
-        <v>1.882546828361331</v>
+        <v>1.882546806851734</v>
       </c>
     </row>
     <row r="3">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.22894117249867</v>
+        <v>0.2289411723468184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1196027887341632</v>
+        <v>0.1196027870409924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1049762311682052</v>
+        <v>0.1049762308839725</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09589904938991108</v>
+        <v>0.09589904842095204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09540207063650345</v>
+        <v>0.0954020682866283</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08964508706482528</v>
+        <v>0.08964508604055878</v>
       </c>
     </row>
     <row r="4">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.22894117249867</v>
+        <v>0.2289411723468184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3485439612328332</v>
+        <v>0.3485439593878108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4535201924010384</v>
+        <v>0.4535201902717833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5494192417909495</v>
+        <v>0.5494192386927352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6448213124274529</v>
+        <v>0.6448213069793636</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7344663994922782</v>
+        <v>0.7344663930199223</v>
       </c>
     </row>
     <row r="5">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3117108865115306</v>
+        <v>0.311710889051677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1628431046224064</v>
+        <v>0.1628431037521252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1429285686054163</v>
+        <v>0.1429285694779571</v>
       </c>
       <c r="E5" t="n">
-        <v>0.130569689037108</v>
+        <v>0.130569688868461</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298930362266442</v>
+        <v>0.129893034171872</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220547149968945</v>
+        <v>0.1220547146779079</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QNOHLTH', 'QEDLESHI', 'QHISPC', 'QESL', 'PPUNIT', 'QEXTRCT', 'QSERV', 'MDHSEVAL', 'PERCAP', 'QRICH', 'QRENTER', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFHH', 'QFAM', 'QBLACK', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QEXTRCT', 'QESL', 'QSERV', 'QRICH', 'PERCAP', 'MDHSEVAL', 'QRENTER', 'QSSBEN', 'QAGEDEP', 'MEDAGE', 'QFAM', 'QBLACK', 'QFHH', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
